--- a/flaskapp/data/after prepare.xlsx
+++ b/flaskapp/data/after prepare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw1-i-Shizuka-moto-1\multipageapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw2-i-Shizuka-moto\flaskapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D56FA-9732-4A16-AF05-119E089971EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA092212-361A-4BEF-B347-2B63AB543FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenditure" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
     <t>Secondaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Higher education </t>
-  </si>
-  <si>
     <t>Special</t>
-  </si>
-  <si>
-    <t>Further Education</t>
-  </si>
-  <si>
-    <t>Current prices</t>
-  </si>
-  <si>
-    <t>Constant 1990  prices</t>
   </si>
   <si>
     <t>Years</t>
@@ -56,10 +44,6 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central Government</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -71,7 +55,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Education Price Index</t>
+    <t>Current_prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education_Price_Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant_1990_prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher_education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further_Education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central_Government</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +475,7 @@
   <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -485,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3125,8 +3129,8 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3148,13 +3152,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6998,8 +7002,8 @@
   </sheetPr>
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7009,19 +7013,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/flaskapp/data/after prepare.xlsx
+++ b/flaskapp/data/after prepare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjy15\Desktop\third year\COMP0034\comp0034-cw2-i-Shizuka-moto\flaskapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA092212-361A-4BEF-B347-2B63AB543FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD771772-7A2B-4C8E-9D29-5112DD2154EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
